--- a/tests/resources/test_data_query_milestones.xlsx
+++ b/tests/resources/test_data_query_milestones.xlsx
@@ -353,7 +353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -381,100 +381,15 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AMIS</t>
+          <t>Roads Places and Environment Group</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mars</t>
+          <t>SoT</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>md</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>RPE</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>SoT</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>md</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>HSMRPG</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>A11</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>md</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Rail</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>A13</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>md</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>RPE</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>F9</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>md</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Rail</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Columbia</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>md</t>
         </is>
@@ -491,7 +406,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,65 +432,17 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>SoT</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>md</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>HSMRPG</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>A11</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>md</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>A13</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>md</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>F9</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>md</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Columbia</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>md</t>
         </is>

--- a/tests/resources/test_data_query_milestones.xlsx
+++ b/tests/resources/test_data_query_milestones.xlsx
@@ -353,7 +353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -369,10 +369,20 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Project</t>
+          <t>Project Name</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
+        <is>
+          <t>Project Acronym</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>GMPP</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
         <is>
           <t>Full Operations</t>
         </is>
@@ -381,15 +391,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Roads Places and Environment Group</t>
+          <t>RPE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Sea of Tranquility</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>SoT</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>md</t>
         </is>
@@ -406,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,10 +442,20 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Project</t>
+          <t>Project Name</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
+        <is>
+          <t>Project Acronym</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>GMPP</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
         <is>
           <t>Full Operations</t>
         </is>
@@ -434,15 +464,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>RPE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Sea of Tranquility</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>SoT</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>md</t>
         </is>

--- a/tests/resources/test_data_query_milestones.xlsx
+++ b/tests/resources/test_data_query_milestones.xlsx
@@ -61,6 +61,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
